--- a/backEnd/excels/MilesTrack_2025.xlsx
+++ b/backEnd/excels/MilesTrack_2025.xlsx
@@ -399,10 +399,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -542,27 +549,44 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>2025-03-16</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>-50</v>
+      </c>
+      <c r="E9">
+        <v>-10.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
         <v>TOTAL</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B10" t="str">
         <v/>
       </c>
-      <c r="C9" t="str">
+      <c r="C10" t="str">
         <v/>
       </c>
-      <c r="D9">
-        <v>1090</v>
-      </c>
-      <c r="E9">
-        <v>223.45</v>
+      <c r="D10">
+        <v>1040</v>
+      </c>
+      <c r="E10">
+        <v>213.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -658,13 +682,6 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">

--- a/backEnd/excels/MilesTrack_2025.xlsx
+++ b/backEnd/excels/MilesTrack_2025.xlsx
@@ -4,8 +4,6 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="March_2025" sheetId="1" r:id="rId1"/>
-    <sheet name="April_2025" sheetId="2" r:id="rId2"/>
-    <sheet name="June_2025" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -399,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -408,7 +406,7 @@
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -430,316 +428,78 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-03-11</v>
+        <v>2025-03-10</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>61.49999999999999</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025-03-13</v>
+        <v>2025-03-11</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>20.5</v>
+        <v>6.1499999999999995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025-03-10</v>
+        <v>2025-03-13</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>20.5</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025-03-28</v>
-      </c>
-      <c r="B5">
-        <v>300</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
+        <v>TOTAL</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E5">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2025-03-15</v>
-      </c>
-      <c r="B6">
-        <v>300</v>
-      </c>
-      <c r="C6">
-        <v>620</v>
-      </c>
-      <c r="D6">
-        <v>320</v>
-      </c>
-      <c r="E6">
-        <v>65.6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2025-03-26</v>
-      </c>
-      <c r="B7">
-        <v>500</v>
-      </c>
-      <c r="C7">
-        <v>600</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>2025-03-30</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>70</v>
-      </c>
-      <c r="E8">
-        <v>14.35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>2025-03-16</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>-50</v>
-      </c>
-      <c r="E9">
-        <v>-10.25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>TOTAL</v>
-      </c>
-      <c r="B10" t="str">
-        <v/>
-      </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10">
-        <v>1040</v>
-      </c>
-      <c r="E10">
-        <v>213.2</v>
+        <v>24.189999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B1" t="str">
-        <v>StartMiles</v>
-      </c>
-      <c r="C1" t="str">
-        <v>EndMiles</v>
-      </c>
-      <c r="D1" t="str">
-        <v>TotalMiles</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Payment</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2025-04-10</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2">
-        <v>620</v>
-      </c>
-      <c r="D2">
-        <v>320</v>
-      </c>
-      <c r="E2">
-        <v>65.6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2025-04-26</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>630</v>
-      </c>
-      <c r="D3">
-        <v>530</v>
-      </c>
-      <c r="E3">
-        <v>108.64999999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>TOTAL</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4">
-        <v>850</v>
-      </c>
-      <c r="E4">
-        <v>174.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B1" t="str">
-        <v>StartMiles</v>
-      </c>
-      <c r="C1" t="str">
-        <v>EndMiles</v>
-      </c>
-      <c r="D1" t="str">
-        <v>TotalMiles</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Payment</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2025-06-21</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2">
-        <v>562</v>
-      </c>
-      <c r="D2">
-        <v>262</v>
-      </c>
-      <c r="E2">
-        <v>53.709999999999994</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>TOTAL</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3">
-        <v>262</v>
-      </c>
-      <c r="E3">
-        <v>53.709999999999994</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:B3"/>
-  </mergeCells>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backEnd/excels/MilesTrack_2025.xlsx
+++ b/backEnd/excels/MilesTrack_2025.xlsx
@@ -406,7 +406,7 @@
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -428,36 +428,36 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-03-10</v>
+        <v>2025-03-26</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>8.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025-03-11</v>
+        <v>2025-03-12</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>301</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="E3">
-        <v>6.1499999999999995</v>
+        <v>51.455</v>
       </c>
     </row>
     <row r="4">
@@ -465,16 +465,16 @@
         <v>2025-03-13</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>9.84</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v/>
       </c>
       <c r="D5">
-        <v>118</v>
+        <v>371</v>
       </c>
       <c r="E5">
-        <v>24.189999999999998</v>
+        <v>76.055</v>
       </c>
     </row>
   </sheetData>
